--- a/BOM-assembly.xlsx
+++ b/BOM-assembly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\David\PROJECTS\EAGLE\Wifi Relay Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE370F-FA84-4E00-8826-4A6B1CEE8082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBA0D0-933C-4734-B352-D17E66542006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="276" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-ESP-wroom-02U" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>Qty</t>
   </si>
@@ -248,6 +248,78 @@
   </si>
   <si>
     <t>U3</t>
+  </si>
+  <si>
+    <t>2-Pin male header</t>
+  </si>
+  <si>
+    <t>CONN_1X02</t>
+  </si>
+  <si>
+    <t>1X02 (Pitch 2.54mm)</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>952-2262-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/harwin-inc/M20-9990246/952-2262-ND/3728226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M20-9990246</t>
+  </si>
+  <si>
+    <t>6-Pin male header</t>
+  </si>
+  <si>
+    <t>CONN_1X06</t>
+  </si>
+  <si>
+    <t>1X06 (Pitch 2.54mm)</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>609-3263-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-icc-fci/68000-406HLF/609-3263-ND/1878471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amphenol</t>
+  </si>
+  <si>
+    <t>68000-406HLF</t>
+  </si>
+  <si>
+    <t>20-pin Female header</t>
+  </si>
+  <si>
+    <t>CONN_2X10</t>
+  </si>
+  <si>
+    <t>2X10 (Pitch 2.54mm)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>S7078-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC102LFBN-RC/S7078-ND/810216</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>PPTC102LFBN-RC</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,6 +1527,111 @@
         <v>1.66</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -1466,8 +1643,11 @@
     <hyperlink ref="H7" r:id="rId6" xr:uid="{BBEE8BD8-67D1-4A7E-ABE9-BB7896F7CFBE}"/>
     <hyperlink ref="H8" r:id="rId7" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
     <hyperlink ref="H9" r:id="rId8" xr:uid="{6B0C927C-8C67-40A0-A59F-AAE21B75B073}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{81DF5D45-A870-4BDF-ACA8-0F8305C75FF2}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/BOM-assembly.xlsx
+++ b/BOM-assembly.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\David\PROJECTS\EAGLE\Wifi Relay Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBA0D0-933C-4734-B352-D17E66542006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2033F3-E4B3-46A9-998F-63EAD97B0BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="276" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-ESP-wroom-02U" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Qty</t>
   </si>
@@ -103,15 +111,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>TLV75533PDBVR</t>
-  </si>
-  <si>
-    <t>296-50411-1-ND</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>WiFi module</t>
   </si>
   <si>
@@ -133,15 +132,9 @@
     <t>MBR0520LT3G</t>
   </si>
   <si>
-    <t>TLV75533</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/on-semiconductor/MBR0520LT3G/MBR0520LT3GOSCT-ND/2705022</t>
   </si>
   <si>
-    <t xml:space="preserve"> MBR0520LT3GOSCT-ND</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
@@ -217,30 +210,15 @@
     <t>18-SMD Module</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/texas-instruments/TLV75533PDBVR/296-50411-1-ND/9685550</t>
-  </si>
-  <si>
     <t>SOT-23-5</t>
   </si>
   <si>
     <t>Linear Voltage Regulator</t>
   </si>
   <si>
-    <t>MCP23018-E/SS</t>
-  </si>
-  <si>
-    <t>MCP23018-E/SS-ND</t>
-  </si>
-  <si>
     <t>I/O expander 16bit</t>
   </si>
   <si>
-    <t>24-SSOP</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP23018-E-SS/MCP23018-E-SS-ND/1999506</t>
-  </si>
-  <si>
     <t>Microchip Technology</t>
   </si>
   <si>
@@ -320,6 +298,51 @@
   </si>
   <si>
     <t>PPTC102LFBN-RC</t>
+  </si>
+  <si>
+    <t>28-SOIC</t>
+  </si>
+  <si>
+    <t>MCP23018-E/SO-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP23018-E-SO/MCP23018-E-SO-ND/1999504</t>
+  </si>
+  <si>
+    <t>MCP23018-E/SO</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3</t>
+  </si>
+  <si>
+    <t>Voltage regulator 3.3 V - 300 mA</t>
+  </si>
+  <si>
+    <t>576-4764-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/MIC5504-3-3YM5-TR/576-4764-1-ND/4864028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microchip Technology</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MBR0520LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Relay Node</t>
+  </si>
+  <si>
+    <t>PCB Version:</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
   </si>
 </sst>
 </file>
@@ -329,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +501,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +698,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -775,6 +832,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -821,7 +904,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -833,8 +916,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1191,461 +1299,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K5" s="17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
-        <v>603</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="K6" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K7" s="6">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>603</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="2">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{7A16E887-5AEF-4F63-9D0E-69E24586E962}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{5AE20744-6278-48FF-826C-E165DB38D0EB}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{BBEE8BD8-67D1-4A7E-ABE9-BB7896F7CFBE}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{6B0C927C-8C67-40A0-A59F-AAE21B75B073}"/>
-    <hyperlink ref="H12" r:id="rId9" xr:uid="{81DF5D45-A870-4BDF-ACA8-0F8305C75FF2}"/>
-    <hyperlink ref="H10" r:id="rId10" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{7A16E887-5AEF-4F63-9D0E-69E24586E962}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{5AE20744-6278-48FF-826C-E165DB38D0EB}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{BBEE8BD8-67D1-4A7E-ABE9-BB7896F7CFBE}"/>
+    <hyperlink ref="H16" r:id="rId7" xr:uid="{81DF5D45-A870-4BDF-ACA8-0F8305C75FF2}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{DC4EE246-2C32-4388-9435-38F42BBCCD7B}"/>
+    <hyperlink ref="H12" r:id="rId11" display="https://www.digikey.com/product-detail/en/texas-instruments/TLV75533PDBVR/296-50411-1-ND/9685550" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/BOM-assembly.xlsx
+++ b/BOM-assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\David\PROJECTS\EAGLE\Wifi Relay Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2033F3-E4B3-46A9-998F-63EAD97B0BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B9333-2D73-42A2-9BB4-90BD4ABAE00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1671,108 +1671,108 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="6">
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="6">
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <v>1.3</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
     <hyperlink ref="H14" r:id="rId8" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
     <hyperlink ref="H15" r:id="rId9" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
     <hyperlink ref="H13" r:id="rId10" xr:uid="{DC4EE246-2C32-4388-9435-38F42BBCCD7B}"/>
-    <hyperlink ref="H12" r:id="rId11" display="https://www.digikey.com/product-detail/en/texas-instruments/TLV75533PDBVR/296-50411-1-ND/9685550" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/BOM-assembly.xlsx
+++ b/BOM-assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\David\PROJECTS\EAGLE\Wifi Relay Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B9333-2D73-42A2-9BB4-90BD4ABAE00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC815D-A415-42B9-BF3F-A30ECC0AD079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23280" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-ESP-wroom-02U" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>Qty</t>
   </si>
@@ -126,9 +126,6 @@
     <t>1k resistor</t>
   </si>
   <si>
-    <t>20V 0.5A</t>
-  </si>
-  <si>
     <t>MBR0520LT3G</t>
   </si>
   <si>
@@ -333,16 +330,7 @@
     <t xml:space="preserve"> MBR0520LT1GOSCT-ND</t>
   </si>
   <si>
-    <t>Project:</t>
-  </si>
-  <si>
-    <t>Relay Node</t>
-  </si>
-  <si>
-    <t>PCB Version:</t>
-  </si>
-  <si>
-    <t>2.1.0</t>
+    <t>Diode Schottky 20V 0.5A</t>
   </si>
 </sst>
 </file>
@@ -352,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,16 +497,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,18 +676,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -717,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -832,32 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -904,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -919,30 +861,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1299,16 +1220,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
@@ -1320,250 +1241,354 @@
     <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>104</v>
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4"/>
-      <c r="K3" s="6"/>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="K4" s="14"/>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>603</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K6" s="6">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K7" s="6">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="K8" s="6">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="K9" s="6">
-        <v>0.1</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="7">
-        <v>603</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K10" s="6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1571,34 +1596,34 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K11" s="6">
-        <v>3.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1606,196 +1631,50 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K12" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="6">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H9" r:id="rId4" xr:uid="{7A16E887-5AEF-4F63-9D0E-69E24586E962}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{5AE20744-6278-48FF-826C-E165DB38D0EB}"/>
-    <hyperlink ref="H11" r:id="rId6" xr:uid="{BBEE8BD8-67D1-4A7E-ABE9-BB7896F7CFBE}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{81DF5D45-A870-4BDF-ACA8-0F8305C75FF2}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{DC4EE246-2C32-4388-9435-38F42BBCCD7B}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{7A16E887-5AEF-4F63-9D0E-69E24586E962}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{5AE20744-6278-48FF-826C-E165DB38D0EB}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{BBEE8BD8-67D1-4A7E-ABE9-BB7896F7CFBE}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{81DF5D45-A870-4BDF-ACA8-0F8305C75FF2}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{A08A328A-580D-46FF-A298-F12D10B0F179}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{E2FCC550-2C60-4F66-9BD3-77F78592DA4C}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{DC4EE246-2C32-4388-9435-38F42BBCCD7B}"/>
+    <hyperlink ref="H8" r:id="rId11" xr:uid="{EC3314D4-DA5D-4457-AE84-5B27C92D554B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
